--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9881</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>81.47</v>
+      </c>
+      <c r="D6">
+        <v>80.5</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1.19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42607.88422453704</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9835.5499999999993</v>
+      </c>
+      <c r="B7">
+        <v>9881</v>
+      </c>
+      <c r="C7">
+        <v>80.45</v>
+      </c>
+      <c r="D7">
+        <v>80.08</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-0.46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42608.616331018522</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9794.24</v>
+      </c>
+      <c r="B8">
+        <v>9835.5499999999993</v>
+      </c>
+      <c r="C8">
+        <v>80.11</v>
+      </c>
+      <c r="D8">
+        <v>79.77</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-0.42</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42609.488344907404</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9597.3799999999992</v>
+      </c>
+      <c r="B9">
+        <v>9794.24</v>
+      </c>
+      <c r="C9">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D9">
+        <v>78.05</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42612.67292824074</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9581.06</v>
+      </c>
+      <c r="B10">
+        <v>9597.3799999999992</v>
+      </c>
+      <c r="C10">
+        <v>78.05</v>
+      </c>
+      <c r="D10">
+        <v>77.92</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42613.765474537038</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9659.6200000000008</v>
+      </c>
+      <c r="B11">
+        <v>9581.06</v>
+      </c>
+      <c r="C11">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="D11">
+        <v>78.38</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.82</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42614.672696759262</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9543.7000000000007</v>
+      </c>
+      <c r="B12">
+        <v>9659.6200000000008</v>
+      </c>
+      <c r="C12">
+        <v>78.36</v>
+      </c>
+      <c r="D12">
+        <v>77.42</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1.2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42615.750057870369</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9556.11</v>
+      </c>
+      <c r="B13">
+        <v>9543.7000000000007</v>
+      </c>
+      <c r="C13">
+        <v>77.78</v>
+      </c>
+      <c r="D13">
+        <v>77.88</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42620.766157407408</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,6 +698,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9543.69</v>
+      </c>
+      <c r="B14">
+        <v>9556.11</v>
+      </c>
+      <c r="C14">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="D14">
+        <v>78.22</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-0.13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42621.725729166668</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9622.9</v>
+      </c>
+      <c r="B15">
+        <v>9543.69</v>
+      </c>
+      <c r="C15">
+        <v>78.34</v>
+      </c>
+      <c r="D15">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.83</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42622.756273148145</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,6 +750,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9569.9699999999993</v>
+      </c>
+      <c r="B16">
+        <v>9622.9</v>
+      </c>
+      <c r="C16">
+        <v>78.48</v>
+      </c>
+      <c r="D16">
+        <v>78.05</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42624.611157407409</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.664606481485</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9860.5</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>79.69</v>
+      </c>
+      <c r="F5">
+        <v>81.91</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2.79</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +506,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42635.643009259256</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9960</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>82.03</v>
+      </c>
+      <c r="F6">
+        <v>81.7</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.4</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,6 +535,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42635.800474537034</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9830.52</v>
+      </c>
+      <c r="D7">
+        <v>9960</v>
+      </c>
+      <c r="E7">
+        <v>82.03</v>
+      </c>
+      <c r="F7">
+        <v>80.959900000000005</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1.3</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,6 +564,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42636.592766203707</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>9860.5</v>
+      </c>
+      <c r="D8">
+        <v>9830.52</v>
+      </c>
+      <c r="E8">
+        <v>81.97</v>
+      </c>
+      <c r="F8">
+        <v>81.47</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-0.61</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.540729166663</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9976.89</v>
+      </c>
+      <c r="D4">
+        <v>9953</v>
+      </c>
+      <c r="E4">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="F4">
+        <v>78.94</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-0.48</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,60 +421,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.548229166663</v>
+        <v>42642.48715277778</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9953</v>
+        <v>9981</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>79.12</v>
       </c>
       <c r="F3">
-        <v>80.62</v>
+        <v>78.97</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.47</v>
+        <v>-0.19</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42641.540729166663</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9976.89</v>
-      </c>
-      <c r="D4">
-        <v>9953</v>
-      </c>
-      <c r="E4">
-        <v>79.319999999999993</v>
-      </c>
-      <c r="F4">
-        <v>78.94</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>-0.48</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -448,6 +449,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42644.477812500001</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10039.89</v>
+      </c>
+      <c r="D4">
+        <v>9981</v>
+      </c>
+      <c r="E4">
+        <v>78.2</v>
+      </c>
+      <c r="F4">
+        <v>79.12</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.18</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42647.680543981478</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10102.14</v>
+      </c>
+      <c r="D5">
+        <v>10039.89</v>
+      </c>
+      <c r="E5">
+        <v>78.63</v>
+      </c>
+      <c r="F5">
+        <v>78.14</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-0.62</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +507,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42648.453622685185</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10156.19</v>
+      </c>
+      <c r="D6">
+        <v>10102.14</v>
+      </c>
+      <c r="E6">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="F6">
+        <v>77.314999999999998</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-1.07</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,8 +379,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
@@ -536,6 +535,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42650.366828703707</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10232.870000000001</v>
+      </c>
+      <c r="D7">
+        <v>10156.19</v>
+      </c>
+      <c r="E7">
+        <v>77.379997000000003</v>
+      </c>
+      <c r="F7">
+        <v>76.209998999999996</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-1.51</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,6 +564,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42651.513321759259</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10071.19</v>
+      </c>
+      <c r="D8">
+        <v>10232.870000000001</v>
+      </c>
+      <c r="E8">
+        <v>76.449996999999996</v>
+      </c>
+      <c r="F8">
+        <v>75.239998</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-1.58</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/GILD/GILDRandomTrade.xlsx
@@ -369,20 +369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,6 +593,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42654.743703703702</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10071.69</v>
+      </c>
+      <c r="D9">
+        <v>10071.19</v>
+      </c>
+      <c r="E9">
+        <v>75.5</v>
+      </c>
+      <c r="F9">
+        <v>75.489998</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-0.01</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
